--- a/data/processed_vaccine/VE.xlsx
+++ b/data/processed_vaccine/VE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPRU_Shingrix\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPRU_RZV\data\processed_vaccine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1C3593-8385-44D9-9D34-24E0D2C03884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A68FFD0-4D5E-495F-BC87-0C3865ABD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="2415" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/processed_vaccine/VE.xlsx
+++ b/data/processed_vaccine/VE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPRU_RZV\data\processed_vaccine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\HPRU\Shingrix\HPRU_RZV\data\processed_vaccine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A68FFD0-4D5E-495F-BC87-0C3865ABD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E6D3D-C7D3-43CF-83F7-D1B845F194E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="1125" windowWidth="21900" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
   <si>
     <t>Source</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>yr11</t>
+  </si>
+  <si>
+    <t>Walker 2018</t>
+  </si>
+  <si>
+    <t>Single-dose</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,20 +803,26 @@
       <c r="E6">
         <v>0.5</v>
       </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6">
-        <v>76</v>
+        <v>56.9</v>
       </c>
       <c r="K6">
-        <v>68.400000000000006</v>
+        <v>55</v>
       </c>
       <c r="L6">
-        <v>81.8</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -829,28 +841,25 @@
       <c r="E7">
         <v>0.5</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>58.3</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="L7">
-        <v>67.2</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -861,8 +870,11 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -871,13 +883,13 @@
         <v>14</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>58.3</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -894,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -903,18 +915,18 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -926,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -935,48 +947,45 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <v>89.1</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>82.9</v>
+        <v>61</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="K11">
-        <v>85.6</v>
+        <v>82.9</v>
       </c>
       <c r="L11">
-        <v>91.3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -990,13 +999,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -1005,16 +1011,16 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12">
-        <v>97.7</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>93.1</v>
+        <v>85.6</v>
       </c>
       <c r="L12">
-        <v>99.5</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1034,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -1043,16 +1049,16 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J13">
-        <v>92.7</v>
+        <v>97.7</v>
       </c>
       <c r="K13">
-        <v>86.2</v>
+        <v>93.1</v>
       </c>
       <c r="L13">
-        <v>96.6</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1072,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1081,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <v>92.4</v>
+        <v>92.7</v>
       </c>
       <c r="K14">
-        <v>85</v>
+        <v>86.2</v>
       </c>
       <c r="L14">
         <v>96.6</v>
@@ -1110,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -1119,16 +1125,16 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J15">
-        <v>89.8</v>
+        <v>92.4</v>
       </c>
       <c r="K15">
-        <v>80.3</v>
+        <v>85</v>
       </c>
       <c r="L15">
-        <v>95.2</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -1157,16 +1163,16 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J16">
-        <v>88.5</v>
+        <v>89.8</v>
       </c>
       <c r="K16">
-        <v>74.900000000000006</v>
+        <v>80.3</v>
       </c>
       <c r="L16">
-        <v>95.6</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1186,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -1195,16 +1201,16 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J17">
-        <v>83.3</v>
+        <v>88.5</v>
       </c>
       <c r="K17">
-        <v>67.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="L17">
-        <v>92.4</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1224,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -1233,16 +1239,16 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18">
-        <v>84.2</v>
+        <v>83.3</v>
       </c>
       <c r="K18">
-        <v>67.900000000000006</v>
+        <v>67.2</v>
       </c>
       <c r="L18">
-        <v>93.1</v>
+        <v>92.4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1262,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -1271,16 +1277,16 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>72.7</v>
+        <v>84.2</v>
       </c>
       <c r="K19">
-        <v>51</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="L19">
-        <v>85.7</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1300,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -1309,42 +1315,54 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J20">
-        <v>73.2</v>
+        <v>72.7</v>
       </c>
       <c r="K20">
-        <v>46.9</v>
+        <v>51</v>
       </c>
       <c r="L20">
-        <v>87.6</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J21">
-        <v>60</v>
+        <v>73.2</v>
+      </c>
+      <c r="K21">
+        <v>46.9</v>
+      </c>
+      <c r="L21">
+        <v>87.6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1361,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1370,13 +1388,7 @@
         <v>52</v>
       </c>
       <c r="J22">
-        <v>51</v>
-      </c>
-      <c r="K22">
-        <v>45</v>
-      </c>
-      <c r="L22">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1393,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1402,13 +1414,13 @@
         <v>52</v>
       </c>
       <c r="J23">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L23">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1425,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1434,13 +1446,13 @@
         <v>52</v>
       </c>
       <c r="J24">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1456,11 +1468,8 @@
       <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
+      <c r="G25" t="s">
+        <v>18</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1469,13 +1478,13 @@
         <v>52</v>
       </c>
       <c r="J25">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L25">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1495,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1504,13 +1513,13 @@
         <v>52</v>
       </c>
       <c r="J26">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1530,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1539,13 +1548,13 @@
         <v>52</v>
       </c>
       <c r="J27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1565,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1574,13 +1583,13 @@
         <v>52</v>
       </c>
       <c r="J28">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1600,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1609,13 +1618,13 @@
         <v>52</v>
       </c>
       <c r="J29">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L29">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1635,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1644,13 +1653,13 @@
         <v>52</v>
       </c>
       <c r="J30">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L30">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1670,22 +1679,22 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
       </c>
       <c r="J31">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L31">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1705,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>
@@ -1714,13 +1723,13 @@
         <v>52</v>
       </c>
       <c r="J32">
+        <v>77</v>
+      </c>
+      <c r="K32">
         <v>61</v>
       </c>
-      <c r="K32">
-        <v>33</v>
-      </c>
       <c r="L32">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1740,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
@@ -1749,13 +1758,13 @@
         <v>52</v>
       </c>
       <c r="J33">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L33">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
@@ -1784,13 +1793,13 @@
         <v>52</v>
       </c>
       <c r="J34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L34">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
@@ -1819,13 +1828,13 @@
         <v>52</v>
       </c>
       <c r="J35">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>32</v>
       </c>
       <c r="L35">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
         <v>19</v>
@@ -1854,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="J36">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L36">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1880,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
@@ -1889,18 +1898,18 @@
         <v>52</v>
       </c>
       <c r="J37">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
@@ -1915,22 +1924,22 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J38">
-        <v>67.2</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>65.400000000000006</v>
+        <v>38</v>
       </c>
       <c r="L38">
-        <v>68.8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1950,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -1959,13 +1968,13 @@
         <v>56</v>
       </c>
       <c r="J39">
-        <v>49.6</v>
+        <v>67.2</v>
       </c>
       <c r="K39">
-        <v>47.4</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L39">
-        <v>51.7</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1985,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -1994,13 +2003,13 @@
         <v>56</v>
       </c>
       <c r="J40">
-        <v>42</v>
+        <v>49.6</v>
       </c>
       <c r="K40">
-        <v>39.5</v>
+        <v>47.4</v>
       </c>
       <c r="L40">
-        <v>44.4</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2020,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2029,13 +2038,13 @@
         <v>56</v>
       </c>
       <c r="J41">
-        <v>39.9</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>37.1</v>
+        <v>39.5</v>
       </c>
       <c r="L41">
-        <v>42.5</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2055,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2064,13 +2073,13 @@
         <v>56</v>
       </c>
       <c r="J42">
-        <v>37</v>
+        <v>39.9</v>
       </c>
       <c r="K42">
-        <v>33.9</v>
+        <v>37.1</v>
       </c>
       <c r="L42">
-        <v>39.9</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2090,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2099,13 +2108,13 @@
         <v>56</v>
       </c>
       <c r="J43">
-        <v>33.5</v>
+        <v>37</v>
       </c>
       <c r="K43">
-        <v>29.7</v>
+        <v>33.9</v>
       </c>
       <c r="L43">
-        <v>37.1</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2125,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2134,13 +2143,13 @@
         <v>56</v>
       </c>
       <c r="J44">
-        <v>27.3</v>
+        <v>33.5</v>
       </c>
       <c r="K44">
-        <v>22.6</v>
+        <v>29.7</v>
       </c>
       <c r="L44">
-        <v>31.7</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2160,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2169,13 +2178,13 @@
         <v>56</v>
       </c>
       <c r="J45">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="K45">
-        <v>21.4</v>
+        <v>22.6</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2195,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2204,13 +2213,13 @@
         <v>56</v>
       </c>
       <c r="J46">
-        <v>25.1</v>
+        <v>26.9</v>
       </c>
       <c r="K46">
-        <v>18.8</v>
+        <v>21.4</v>
       </c>
       <c r="L46">
-        <v>30.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2239,13 +2248,13 @@
         <v>56</v>
       </c>
       <c r="J47">
-        <v>19.100000000000001</v>
+        <v>25.1</v>
       </c>
       <c r="K47">
-        <v>11.2</v>
+        <v>18.8</v>
       </c>
       <c r="L47">
-        <v>26.3</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2262,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2274,13 +2283,112 @@
         <v>56</v>
       </c>
       <c r="J48">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K48">
+        <v>11.2</v>
+      </c>
+      <c r="L48">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49">
         <v>14.9</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>23.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50">
+        <v>69</v>
+      </c>
+      <c r="K50">
+        <v>65</v>
+      </c>
+      <c r="L50">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51">
+        <v>81</v>
+      </c>
+      <c r="K51">
+        <v>61</v>
+      </c>
+      <c r="L51">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed_vaccine/VE.xlsx
+++ b/data/processed_vaccine/VE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\HPRU\Shingrix\HPRU_RZV\data\processed_vaccine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E6D3D-C7D3-43CF-83F7-D1B845F194E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DE3296-CC95-4DA0-9039-DD7F2D824508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="1125" windowWidth="21900" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="61">
   <si>
     <t>Source</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Single-dose</t>
+  </si>
+  <si>
+    <t>Parikh 2023</t>
   </si>
 </sst>
 </file>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,37 +993,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J12">
-        <v>89</v>
+        <v>79.2</v>
       </c>
       <c r="K12">
-        <v>85.6</v>
+        <v>57.6</v>
       </c>
       <c r="L12">
-        <v>91.3</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1034,13 +1034,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -1049,16 +1046,16 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J13">
-        <v>97.7</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>93.1</v>
+        <v>85.6</v>
       </c>
       <c r="L13">
-        <v>99.5</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1078,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1087,16 +1084,16 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14">
-        <v>92.7</v>
+        <v>97.7</v>
       </c>
       <c r="K14">
-        <v>86.2</v>
+        <v>93.1</v>
       </c>
       <c r="L14">
-        <v>96.6</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1116,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -1125,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15">
-        <v>92.4</v>
+        <v>92.7</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>86.2</v>
       </c>
       <c r="L15">
         <v>96.6</v>
@@ -1154,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -1163,16 +1160,16 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J16">
-        <v>89.8</v>
+        <v>92.4</v>
       </c>
       <c r="K16">
-        <v>80.3</v>
+        <v>85</v>
       </c>
       <c r="L16">
-        <v>95.2</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1192,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -1201,16 +1198,16 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J17">
-        <v>88.5</v>
+        <v>89.8</v>
       </c>
       <c r="K17">
-        <v>74.900000000000006</v>
+        <v>80.3</v>
       </c>
       <c r="L17">
-        <v>95.6</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -1239,16 +1236,16 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J18">
-        <v>83.3</v>
+        <v>88.5</v>
       </c>
       <c r="K18">
-        <v>67.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="L18">
-        <v>92.4</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1268,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -1277,16 +1274,16 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J19">
-        <v>84.2</v>
+        <v>83.3</v>
       </c>
       <c r="K19">
-        <v>67.900000000000006</v>
+        <v>67.2</v>
       </c>
       <c r="L19">
-        <v>93.1</v>
+        <v>92.4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1306,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -1315,16 +1312,16 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20">
-        <v>72.7</v>
+        <v>84.2</v>
       </c>
       <c r="K20">
-        <v>51</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="L20">
-        <v>85.7</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1344,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1353,42 +1350,54 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J21">
-        <v>73.2</v>
+        <v>72.7</v>
       </c>
       <c r="K21">
-        <v>46.9</v>
+        <v>51</v>
       </c>
       <c r="L21">
-        <v>87.6</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J22">
-        <v>60</v>
+        <v>73.2</v>
+      </c>
+      <c r="K22">
+        <v>46.9</v>
+      </c>
+      <c r="L22">
+        <v>87.6</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1405,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1414,13 +1423,7 @@
         <v>52</v>
       </c>
       <c r="J23">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>45</v>
-      </c>
-      <c r="L23">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1437,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1446,13 +1449,13 @@
         <v>52</v>
       </c>
       <c r="J24">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1469,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1478,13 +1481,13 @@
         <v>52</v>
       </c>
       <c r="J25">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1500,11 +1503,8 @@
       <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
+      <c r="G26" t="s">
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1513,13 +1513,13 @@
         <v>52</v>
       </c>
       <c r="J26">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L26">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1548,13 +1548,13 @@
         <v>52</v>
       </c>
       <c r="J27">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1583,13 +1583,13 @@
         <v>52</v>
       </c>
       <c r="J28">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1618,13 +1618,13 @@
         <v>52</v>
       </c>
       <c r="J29">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1653,13 +1653,13 @@
         <v>52</v>
       </c>
       <c r="J30">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1688,13 +1688,13 @@
         <v>52</v>
       </c>
       <c r="J31">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L31">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1714,22 +1714,22 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
         <v>52</v>
       </c>
       <c r="J32">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L32">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
@@ -1758,13 +1758,13 @@
         <v>52</v>
       </c>
       <c r="J33">
+        <v>77</v>
+      </c>
+      <c r="K33">
         <v>61</v>
       </c>
-      <c r="K33">
-        <v>33</v>
-      </c>
       <c r="L33">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
@@ -1793,13 +1793,13 @@
         <v>52</v>
       </c>
       <c r="J34">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
@@ -1828,13 +1828,13 @@
         <v>52</v>
       </c>
       <c r="J35">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L35">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
         <v>19</v>
@@ -1863,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="J36">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K36">
         <v>32</v>
       </c>
       <c r="L36">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
@@ -1898,13 +1898,13 @@
         <v>52</v>
       </c>
       <c r="J37">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L37">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
@@ -1933,18 +1933,18 @@
         <v>52</v>
       </c>
       <c r="J38">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L38">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -1959,22 +1959,22 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J39">
-        <v>67.2</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>65.400000000000006</v>
+        <v>38</v>
       </c>
       <c r="L39">
-        <v>68.8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2003,13 +2003,13 @@
         <v>56</v>
       </c>
       <c r="J40">
-        <v>49.6</v>
+        <v>67.2</v>
       </c>
       <c r="K40">
-        <v>47.4</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L40">
-        <v>51.7</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2038,13 +2038,13 @@
         <v>56</v>
       </c>
       <c r="J41">
-        <v>42</v>
+        <v>49.6</v>
       </c>
       <c r="K41">
-        <v>39.5</v>
+        <v>47.4</v>
       </c>
       <c r="L41">
-        <v>44.4</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2073,13 +2073,13 @@
         <v>56</v>
       </c>
       <c r="J42">
-        <v>39.9</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>37.1</v>
+        <v>39.5</v>
       </c>
       <c r="L42">
-        <v>42.5</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2108,13 +2108,13 @@
         <v>56</v>
       </c>
       <c r="J43">
-        <v>37</v>
+        <v>39.9</v>
       </c>
       <c r="K43">
-        <v>33.9</v>
+        <v>37.1</v>
       </c>
       <c r="L43">
-        <v>39.9</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2143,13 +2143,13 @@
         <v>56</v>
       </c>
       <c r="J44">
-        <v>33.5</v>
+        <v>37</v>
       </c>
       <c r="K44">
-        <v>29.7</v>
+        <v>33.9</v>
       </c>
       <c r="L44">
-        <v>37.1</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2178,13 +2178,13 @@
         <v>56</v>
       </c>
       <c r="J45">
-        <v>27.3</v>
+        <v>33.5</v>
       </c>
       <c r="K45">
-        <v>22.6</v>
+        <v>29.7</v>
       </c>
       <c r="L45">
-        <v>31.7</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2213,13 +2213,13 @@
         <v>56</v>
       </c>
       <c r="J46">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="K46">
-        <v>21.4</v>
+        <v>22.6</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2248,13 +2248,13 @@
         <v>56</v>
       </c>
       <c r="J47">
-        <v>25.1</v>
+        <v>26.9</v>
       </c>
       <c r="K47">
-        <v>18.8</v>
+        <v>21.4</v>
       </c>
       <c r="L47">
-        <v>30.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2283,13 +2283,13 @@
         <v>56</v>
       </c>
       <c r="J48">
-        <v>19.100000000000001</v>
+        <v>25.1</v>
       </c>
       <c r="K48">
-        <v>11.2</v>
+        <v>18.8</v>
       </c>
       <c r="L48">
-        <v>26.3</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2306,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2318,18 +2318,18 @@
         <v>56</v>
       </c>
       <c r="J49">
-        <v>14.9</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K49">
-        <v>5.0999999999999996</v>
+        <v>11.2</v>
       </c>
       <c r="L49">
-        <v>23.7</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
@@ -2341,7 +2341,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2350,13 +2353,13 @@
         <v>56</v>
       </c>
       <c r="J50">
-        <v>69</v>
+        <v>14.9</v>
       </c>
       <c r="K50">
-        <v>65</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L50">
-        <v>74</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2376,18 +2379,50 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
         <v>56</v>
       </c>
       <c r="J51">
+        <v>69</v>
+      </c>
+      <c r="K51">
+        <v>65</v>
+      </c>
+      <c r="L51">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52">
         <v>81</v>
       </c>
-      <c r="K51">
+      <c r="K52">
         <v>61</v>
       </c>
-      <c r="L51">
+      <c r="L52">
         <v>91</v>
       </c>
     </row>
